--- a/medicine/Mort/Décès_en_1966/Décès_en_1966.xlsx
+++ b/medicine/Mort/Décès_en_1966/Décès_en_1966.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1966</t>
+          <t>Décès_en_1966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1966</t>
+          <t>Décès_en_1966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Enrico Castello, illustrateur et peintre futuriste italien (° 1890).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Enrico Castello, illustrateur et peintre futuriste italien (° 1890).
 Émile Fabry, peintre belge (° 31 décembre 1865).
 André Le Gentile, musicien, compositeur et professeur de musique français (° 1878).
 Victorin-Nymphas Pagès, frère des écoles chrétiennes, vénérable (° 1885).
-William B. Courtney, scénariste américain (° 19 décembre 1894).
-Janvier
-1er janvier : Vincent Auriol, premier président de la IVe République française (° 27 août 1884).
+William B. Courtney, scénariste américain (° 19 décembre 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Vincent Auriol, premier président de la IVe République française (° 27 août 1884).
 4 janvier :
 Mollie Faustman, peintre, illustratrice, journaliste et autrice suédoise (° 15 mars 1883).
 Georges Theunis, homme politique belge (° 28 février 1873).
@@ -555,9 +606,43 @@
 29 janvier : Pierre Mercure, compositeur canadien (° 21 février 1927).
 30 janvier :
 Erik Bergström, footballeur suédois (° 6 janvier 1886).
-Isidro Corbinos, footballeur et journaliste sportif espagnol (° 15 mai 1894).
-Février
-1er février : Buster Keaton, acteur, scénariste, et réalisateur américain (° 4 octobre 1895).
+Isidro Corbinos, footballeur et journaliste sportif espagnol (° 15 mai 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Buster Keaton, acteur, scénariste, et réalisateur américain (° 4 octobre 1895).
 3 février : Walter Eglin, peintre et mosaïste suisse (° 10 mars 1895).
 13 février : Marguerite Long, musicienne, créatrice de la Fondation Long (° 13 novembre 1874).
 14 février : Hugo Björne, acteur suédois (° 4 février 1886).
@@ -574,9 +659,43 @@
 26 février : Gino Severini, peintre italien (° 7 avril 1883).
 28 février :
 Charlie Bassett, astronaute américain (° 30 décembre 1931).
-Elliot See, astronaute américain (° 23 juillet 1927).
-Mars
-3 mars :
+Elliot See, astronaute américain (° 23 juillet 1927).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars :
 Alfonso Castaldo, cardinal italien, archevêque de Naples (° 6 novembre 1890).
 Alice Pearce, actrice américaine de télévision (° 16 octobre 1917).
 William Frawley, acteur américain (° 26 février 1887).
@@ -592,9 +711,43 @@
 Osendé Afana, économiste et homme politique camerounais (° 1930).
 Spýros Peristéris, musicien grec (° 1900).
 20 mars : Démétrios Galanis, peintre et graveur grec naturalisé français (° 17 mai 1879).
-29 mars : Albert-Édouard Janssen, homme politique, banquier et professeur belge (° 1er avril 1883).
-Avril
-1er avril : Robert Le Moal, footballeur français (° 1er octobre 1903).
+29 mars : Albert-Édouard Janssen, homme politique, banquier et professeur belge (° 1er avril 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Robert Le Moal, footballeur français (° 1er octobre 1903).
 6 avril :
 Ryūshi Kawabata, peintre japonais (° 10 juin 1885).
 Paul Suter, coureur cycliste suisse (° 9 mars 1892).
@@ -614,9 +767,43 @@
 Eugene McCown, peintre et écrivain américain (° 27 juillet 1898).
 29 avril :
 Lowell Reed, scientifique américain (° 8 janvier 1886).
-30 avril : Jan Cornelis Hofman, peintre néerlandais (° 12 avril 1889).
-Mai
-2 mai :
+30 avril : Jan Cornelis Hofman, peintre néerlandais (° 12 avril 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai :
 Torsten Kumfeldt, joueur de water-polo suédois, médaillé d'argent aux Jeux olympiques de 1912 et médaillé de bronze aux Jeux olympiques de 1908 et de 1920 (° 4 janvier 1886).
 Jean Rossius, coureur cycliste belge (° 27 décembre 1890).
 3 mai :
@@ -628,9 +815,43 @@
 16 mai : Joseph Rasqui, coureur cycliste luxembourgeois (° 14 mars 1895).
 20 mai : Carlos Arruza (Carlos Ruiz Camino), matador puis acteur de cinéma mexicain (° 17 février 1920).
 25 mai : Joseph Somers, coureur cycliste belge (° 29 mai 1917).
-26 mai : Odette Pauvert, peintre et illustratrice française (° 10 novembre 1903).
-Juin
-2 juin :
+26 mai : Odette Pauvert, peintre et illustratrice française (° 10 novembre 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin :
 Emmanuel Bamba,  homme politique congolais (° 1920).
 Évariste Kimba, homme politique congolais (° 16 juillet 1926).
 3 juin : Charles-Clos Olsommer, peintre suisse (° 17 mars 1883).
@@ -647,9 +868,43 @@
 29 juin :
 Marcel Bebey Eyidi, médecin et homme politique camerounais (° 21 novembre 1914).
 Arthur Meulemans, compositeur, chef d'orchestre et pédagogue belge (° 19 mai 1884).
-30 juin : Joe Mears, footballeur reconverti entraîneur anglais (° 20 janvier 1905).
-Juillet
-4 juillet :
+30 juin : Joe Mears, footballeur reconverti entraîneur anglais (° 20 janvier 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4 juillet :
 Édouard Elzingre, peintre, affichiste et illustrateur suisse (° 2 juillet 1880).
 Louis Thirion, compositeur français (° 13 février 1879).
 7 juillet : William Piercy, financier britannique (° 7 février 1886).
@@ -662,9 +917,43 @@
 Paul Le Drogo, coureur cycliste français (° 16 février 1905).
 26 juillet : Jean-Edouard de Castella, peintre et dessinateur suisse (° 21 novembre 1881).
 28 juillet : Karl Saur, homme politique allemand (° 16 février 1902).
-31 juillet : Bud Powell, pianiste de jazz américain (° 27 septembre 1924).
-Août
-2 août ou 3 août : Tristan Klingsor, poète, musicien, peintre et critique d'art français (° 8 août 1874).
+31 juillet : Bud Powell, pianiste de jazz américain (° 27 septembre 1924).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août ou 3 août : Tristan Klingsor, poète, musicien, peintre et critique d'art français (° 8 août 1874).
 3 août : Lenny Bruce, comique, scénariste, acteur et réalisateur américain (° 13 octobre 1925).
 5 août : Halvard Olsen, homme politique norvégien (° 23 janvier 1886).
 8 août : Edwin Billington, coureur cycliste sur piste américain (° 14 juillet 1882).
@@ -680,9 +969,43 @@
 28 août : Eddie Barry, acteur américain (° 25 octobre 1887).
 29 août :
 Raffaele Marcoli, coureur cycliste italien (° 27 mars 1940).
-Sayyid Qutb, écrivain égyptien (° 9 octobre 1906).
-Septembre
-1er septembre : Alice Betteridge, Australienne sourde-aveugle, qui a suivi les cours de l'école Royal Institute for Deaf and Blind Children et y est devenue enseignante (° 14 février 1901).
+Sayyid Qutb, écrivain égyptien (° 9 octobre 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Alice Betteridge, Australienne sourde-aveugle, qui a suivi les cours de l'école Royal Institute for Deaf and Blind Children et y est devenue enseignante (° 14 février 1901).
 3 septembre : Cécile Sorel, actrice, sociétaire de la Comédie-Française (° 7 septembre 1873).
 5 septembre : Louis Henno, footballeur et dirigeant sportif français (° 1896).
 6 septembre : Hendrik Verwoerd, premier ministre de la République Sud-africaine (° 8 septembre 1901).
@@ -695,9 +1018,43 @@
 21 septembre : Paul Reynaud, homme politique français, dernier chef de la IIIe République française(° 15 octobre 1878).
 23 septembre : Marcel Payen, peintre français (° 4 janvier 1895).
 28 septembre : André Breton, écrivain et poète français (° 19 février 1896).
-30 septembre : Vicente Pastor, matador espagnol (° 30 janvier 1879).
-Octobre
-5 octobre : Leon De Meester, footballeur belge (° 6 mai 1876).
+30 septembre : Vicente Pastor, matador espagnol (° 30 janvier 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5 octobre : Leon De Meester, footballeur belge (° 6 mai 1876).
 8 octobre : Célestin Freinet, pédagogue français (° 16 octobre 1896).
 10 octobre :
 Camille Godet, peintre français (° 5 juillet 1879).
@@ -707,15 +1064,83 @@
 Elizabeth Arden, esthéticienne d'origine canadienne (° 31 décembre 1878).
 Jean-Pierre Peugeot, président de la société d'automobiles Peugeot (° 16 juin 1896).
 29 octobre : Robert Charpentier, coureur cycliste français (° 4 avril 1916).
-31 octobre : Germain Delatousche, peintre et illustrateur français (° 27 août 1898).
-Novembre
-1er novembre :
+31 octobre : Germain Delatousche, peintre et illustrateur français (° 27 août 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Petar Radaković, footballeur yougoslave (° 22 février 1937).
 Roland-Manuel, compositeur et musicologue français (° 22 mars 1891).
 9 novembre : André Bloc, architecte français (° 23 mai 1896).
-23 novembre : Seán T. O'Kelly, homme d'État Irlande (° 25 août 1882).
-Décembre
-1er décembre :
+23 novembre : Seán T. O'Kelly, homme d'État Irlande (° 25 août 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1966</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Bai Chongxi, militaire, seigneur de la guerre et homme politique chinois (° 18 mars 1893).
 Ami-Ferdinand Duplain, peintre et journaliste suisse (° 16 mars 1893).
 4 décembre : Pierre Combet-Descombes, peintre français (° 24 mars 1885).
